--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T05:08:54+00:00</t>
+    <t>2024-04-30T09:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2174,7 +2174,7 @@
 RangeQuantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>Amount of medication per unit of time</t>
+    <t>Do not use any rate element for repetitions, period or any other time related information. Use timing instead. | Verwenden Sie für Wiederholungen, Perioden oder andere zeitbezogene Informationen keine der rate-Elemente. Verwenden Sie stattdessen timing.</t>
   </si>
   <si>
     <t>Amount of medication per unit of time.</t>
@@ -2210,7 +2210,7 @@
 </t>
   </si>
   <si>
-    <t>Do not use any rate element for repetitions, period or any other time related information. Use timing instead. | Verwenden Sie für Wiederholungen, Perioden oder andere zeitbezogene Informationen keine der rate-Elemente. Verwenden Sie stattdessen timing.</t>
+    <t>Amount of medication per unit of time</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateRange</t>
@@ -14064,7 +14064,7 @@
         <v>701</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>688</v>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T09:05:02+00:00</t>
+    <t>2024-05-06T07:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1714,10 +1714,7 @@
     <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
   </si>
   <si>
-    <t>Real-world event relating to the schedule.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/event-timing|5.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/event-timing</t>
   </si>
   <si>
     <t>Timing.repeat.when</t>
@@ -11395,29 +11392,27 @@
       <c r="X73" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Y73" s="2"/>
+      <c r="Z73" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="Z73" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -11426,7 +11421,7 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>101</v>
@@ -11441,7 +11436,7 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11449,10 +11444,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11475,13 +11470,13 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11532,16 +11527,16 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI74" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>101</v>
@@ -11556,7 +11551,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11564,10 +11559,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11593,13 +11588,13 @@
         <v>189</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11625,31 +11620,31 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="Z75" t="s" s="2">
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11673,7 +11668,7 @@
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11681,10 +11676,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11710,13 +11705,13 @@
         <v>230</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11766,16 +11761,16 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI76" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>101</v>
@@ -11790,18 +11785,18 @@
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>565</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11827,13 +11822,13 @@
         <v>189</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11862,28 +11857,28 @@
         <v>193</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="Z77" t="s" s="2">
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11892,7 +11887,7 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>101</v>
@@ -11907,18 +11902,18 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>565</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11944,16 +11939,16 @@
         <v>189</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11981,28 +11976,28 @@
         <v>193</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="Z78" t="s" s="2">
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -12026,18 +12021,18 @@
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>582</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12063,14 +12058,14 @@
         <v>189</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -12098,28 +12093,28 @@
         <v>193</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z79" t="s" s="2">
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -12143,18 +12138,18 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>591</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12180,16 +12175,16 @@
         <v>189</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -12217,28 +12212,28 @@
         <v>193</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z80" t="s" s="2">
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -12262,18 +12257,18 @@
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>601</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12299,10 +12294,10 @@
         <v>445</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12353,7 +12348,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -12377,18 +12372,18 @@
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>607</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12500,10 +12495,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12617,10 +12612,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12646,14 +12641,14 @@
         <v>189</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12681,28 +12676,28 @@
         <v>193</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="Z84" t="s" s="2">
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF84" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12729,15 +12724,15 @@
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12760,19 +12755,19 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12809,7 +12804,7 @@
         <v>79</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC85" s="2"/>
       <c r="AD85" t="s" s="2">
@@ -12819,7 +12814,7 @@
         <v>256</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12843,21 +12838,21 @@
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>627</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>79</v>
@@ -12879,19 +12874,19 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="N86" t="s" s="2">
-        <v>633</v>
-      </c>
       <c r="O86" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12940,7 +12935,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12952,30 +12947,30 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>636</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13087,10 +13082,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13204,10 +13199,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13233,16 +13228,16 @@
         <v>474</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -13291,7 +13286,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -13315,18 +13310,18 @@
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>649</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13352,20 +13347,20 @@
         <v>109</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q90" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>79</v>
@@ -13389,28 +13384,28 @@
         <v>113</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="Z90" t="s" s="2">
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13434,18 +13429,18 @@
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>660</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B91" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13471,14 +13466,14 @@
         <v>408</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13527,7 +13522,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -13551,18 +13546,18 @@
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>668</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13588,14 +13583,14 @@
         <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13644,16 +13639,16 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>101</v>
@@ -13668,18 +13663,18 @@
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B93" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13705,16 +13700,16 @@
         <v>109</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13763,7 +13758,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13772,7 +13767,7 @@
         <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>101</v>
@@ -13787,18 +13782,18 @@
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13821,19 +13816,19 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13870,17 +13865,17 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AF94" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13904,21 +13899,21 @@
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AO94" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>694</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
@@ -13940,19 +13935,19 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>698</v>
-      </c>
       <c r="M95" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -14001,7 +13996,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -14025,21 +14020,21 @@
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>694</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>79</v>
@@ -14061,19 +14056,19 @@
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -14122,7 +14117,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -14146,21 +14141,21 @@
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AO96" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>694</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>79</v>
@@ -14182,19 +14177,19 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="N97" t="s" s="2">
-        <v>633</v>
-      </c>
       <c r="O97" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
@@ -14243,7 +14238,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -14255,30 +14250,30 @@
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>636</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14301,19 +14296,19 @@
         <v>90</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -14362,7 +14357,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -14386,18 +14381,18 @@
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>711</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14420,19 +14415,19 @@
         <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -14481,7 +14476,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14505,7 +14500,7 @@
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14513,10 +14508,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14539,17 +14534,17 @@
         <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14598,7 +14593,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14622,7 +14617,7 @@
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14630,10 +14625,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14656,13 +14651,13 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14713,7 +14708,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -14731,13 +14726,13 @@
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14745,10 +14740,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14860,10 +14855,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14977,10 +14972,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15064,7 +15059,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -15096,10 +15091,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15122,16 +15117,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15181,7 +15176,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -15205,7 +15200,7 @@
         <v>79</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>79</v>
@@ -15213,10 +15208,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15328,10 +15323,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15445,10 +15440,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15532,7 +15527,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15564,10 +15559,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15590,13 +15585,13 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15647,7 +15642,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -15671,7 +15666,7 @@
         <v>79</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>79</v>
@@ -15679,10 +15674,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15705,13 +15700,13 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15762,7 +15757,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15786,7 +15781,7 @@
         <v>79</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>79</v>
@@ -15794,10 +15789,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15820,13 +15815,13 @@
         <v>79</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15877,7 +15872,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15901,7 +15896,7 @@
         <v>79</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>79</v>
@@ -15909,10 +15904,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15938,16 +15933,16 @@
         <v>382</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>756</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
@@ -15996,7 +15991,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -16014,13 +16009,13 @@
         <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>79</v>
@@ -16028,10 +16023,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16054,16 +16049,16 @@
         <v>79</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>763</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16113,7 +16108,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -16131,24 +16126,24 @@
         <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="AM113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>767</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16171,13 +16166,13 @@
         <v>79</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16228,7 +16223,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -16246,24 +16241,24 @@
         <v>79</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="AM114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AO114" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>773</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16286,16 +16281,16 @@
         <v>79</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16345,7 +16340,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -16363,13 +16358,13 @@
         <v>79</v>
       </c>
       <c r="AL115" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>79</v>
@@ -16377,10 +16372,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16403,13 +16398,13 @@
         <v>79</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16460,7 +16455,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -16484,7 +16479,7 @@
         <v>341</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>79</v>
@@ -16492,10 +16487,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16521,10 +16516,10 @@
         <v>369</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>787</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16575,7 +16570,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -16599,7 +16594,7 @@
         <v>79</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>79</v>
@@ -16607,10 +16602,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16636,10 +16631,10 @@
         <v>189</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16670,7 +16665,7 @@
       </c>
       <c r="Y118" s="2"/>
       <c r="Z118" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>79</v>
@@ -16688,7 +16683,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
@@ -16712,7 +16707,7 @@
         <v>79</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>79</v>
@@ -16720,10 +16715,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16746,13 +16741,13 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16803,7 +16798,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -16821,13 +16816,13 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>797</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>798</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>79</v>
@@ -16835,10 +16830,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16950,10 +16945,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17067,10 +17062,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17154,7 +17149,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -17186,10 +17181,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17212,16 +17207,16 @@
         <v>79</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>803</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17247,14 +17242,14 @@
         <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Y123" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="Z123" t="s" s="2">
         <v>807</v>
       </c>
-      <c r="Z123" t="s" s="2">
-        <v>808</v>
-      </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
       </c>
@@ -17271,7 +17266,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>89</v>
@@ -17289,24 +17284,24 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN123" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="AO123" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>810</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17332,10 +17327,10 @@
         <v>189</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17365,11 +17360,11 @@
         <v>193</v>
       </c>
       <c r="Y124" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="Z124" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="Z124" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
       </c>
@@ -17386,7 +17381,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -17410,18 +17405,18 @@
         <v>79</v>
       </c>
       <c r="AN124" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="AO124" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>817</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17444,16 +17439,16 @@
         <v>79</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>822</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17503,7 +17498,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -17518,16 +17513,16 @@
         <v>101</v>
       </c>
       <c r="AK125" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN125" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>79</v>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T07:04:06+00:00</t>
+    <t>2024-05-06T08:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T08:04:54+00:00</t>
+    <t>2024-05-13T06:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -863,7 +863,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/at-core-patient)
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-patient)
 </t>
   </si>
   <si>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T06:24:50+00:00</t>
+    <t>2024-06-05T08:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T08:21:33+00:00</t>
+    <t>2024-06-06T13:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:51:15+00:00</t>
+    <t>2024-06-26T06:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
